--- a/results/mp/deberta/corona/confidence/168/stop-words-0.1/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.1/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1468">
   <si>
     <t>anchor score</t>
   </si>
@@ -475,796 +475,796 @@
     <t>well</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>schools</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>nyc</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>carts</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>bare</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>canadian</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>hospitals</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>based</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>blog</t>
-  </si>
-  <si>
-    <t>schools</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>nyc</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>carts</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>bare</t>
-  </si>
-  <si>
-    <t>guide</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>donated</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>suppliers</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>canadian</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>hospitals</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>cr</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>ceo</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>based</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>donated</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>healthy</t>
   </si>
   <si>
     <t>okay</t>
@@ -4783,10 +4783,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -5015,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5065,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5115,7 +5115,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5165,7 +5165,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5265,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5315,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -5365,7 +5365,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -5515,7 +5515,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K16">
         <v>0.9166666666666666</v>
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K19">
         <v>0.9</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K20">
         <v>0.9</v>
@@ -5815,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K22">
         <v>0.8846153846153846</v>
@@ -5865,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K23">
         <v>0.8813559322033898</v>
@@ -5915,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K24">
         <v>0.875</v>
@@ -5965,7 +5965,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K25">
         <v>0.875</v>
@@ -6065,7 +6065,7 @@
         <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K27">
         <v>0.875</v>
@@ -6165,7 +6165,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K29">
         <v>0.8571428571428571</v>
@@ -6215,7 +6215,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K30">
         <v>0.8571428571428571</v>
@@ -6365,7 +6365,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K33">
         <v>0.8461538461538461</v>
@@ -6515,7 +6515,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K36">
         <v>0.8333333333333334</v>
@@ -6565,7 +6565,7 @@
         <v>4</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K37">
         <v>0.8267716535433071</v>
@@ -6665,7 +6665,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K39">
         <v>0.8181818181818182</v>
@@ -6715,7 +6715,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K40">
         <v>0.8181818181818182</v>
@@ -6765,7 +6765,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K41">
         <v>0.8181818181818182</v>
@@ -6915,7 +6915,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K44">
         <v>0.8</v>
@@ -7015,7 +7015,7 @@
         <v>13</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K46">
         <v>0.8</v>
@@ -7115,7 +7115,7 @@
         <v>7</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K48">
         <v>0.7777777777777778</v>
@@ -7165,7 +7165,7 @@
         <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K49">
         <v>0.7692307692307693</v>
@@ -7215,7 +7215,7 @@
         <v>5</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K50">
         <v>0.75</v>
@@ -7315,7 +7315,7 @@
         <v>5</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K52">
         <v>0.740506329113924</v>
@@ -7365,7 +7365,7 @@
         <v>5</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K53">
         <v>0.7301587301587301</v>
@@ -7415,7 +7415,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K54">
         <v>0.7272727272727273</v>
@@ -7515,7 +7515,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K56">
         <v>0.7192982456140351</v>
@@ -7565,7 +7565,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K57">
         <v>0.7142857142857143</v>
@@ -7615,7 +7615,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K58">
         <v>0.7142857142857143</v>
@@ -7665,7 +7665,7 @@
         <v>12</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K59">
         <v>0.7</v>
@@ -7765,7 +7765,7 @@
         <v>3</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K61">
         <v>0.7</v>
@@ -7815,7 +7815,7 @@
         <v>10</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K62">
         <v>0.6923076923076923</v>
@@ -7865,7 +7865,7 @@
         <v>58</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K63">
         <v>0.6875</v>
@@ -7915,7 +7915,7 @@
         <v>7</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K64">
         <v>0.6785714285714286</v>
@@ -7965,7 +7965,7 @@
         <v>15</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K65">
         <v>0.6666666666666666</v>
@@ -8015,7 +8015,7 @@
         <v>19</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K66">
         <v>0.6666666666666666</v>
@@ -8115,7 +8115,7 @@
         <v>4</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K68">
         <v>0.6666666666666666</v>
@@ -8165,7 +8165,7 @@
         <v>4</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K69">
         <v>0.6666666666666666</v>
@@ -8265,7 +8265,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K71">
         <v>0.6666666666666666</v>
@@ -8315,7 +8315,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K72">
         <v>0.6666666666666666</v>
@@ -8365,7 +8365,7 @@
         <v>13</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K73">
         <v>0.6666666666666666</v>
@@ -8415,7 +8415,7 @@
         <v>9</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K74">
         <v>0.6666666666666666</v>
@@ -8465,7 +8465,7 @@
         <v>9</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K75">
         <v>0.6666666666666666</v>
@@ -8515,7 +8515,7 @@
         <v>28</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K76">
         <v>0.6666666666666666</v>
@@ -8615,16 +8615,16 @@
         <v>5</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="K78">
-        <v>0.6565217391304348</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L78">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="M78">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N78">
         <v>0.9399999999999999</v>
@@ -8636,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -8665,28 +8665,28 @@
         <v>5</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>141</v>
+        <v>393</v>
       </c>
       <c r="K79">
-        <v>0.6521739130434783</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L79">
         <v>30</v>
       </c>
       <c r="M79">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -8715,16 +8715,16 @@
         <v>5</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K80">
-        <v>0.6382978723404256</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L80">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="M80">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -8765,16 +8765,16 @@
         <v>10</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K81">
-        <v>0.6363636363636364</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L81">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="M81">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -8815,7 +8815,7 @@
         <v>5</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K82">
         <v>0.625</v>
@@ -8865,7 +8865,7 @@
         <v>5</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K83">
         <v>0.625</v>
@@ -8915,7 +8915,7 @@
         <v>5</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K84">
         <v>0.625</v>
@@ -9115,7 +9115,7 @@
         <v>5</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K88">
         <v>0.6</v>
@@ -9265,7 +9265,7 @@
         <v>5</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K91">
         <v>0.6</v>
@@ -9365,7 +9365,7 @@
         <v>5</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K93">
         <v>0.6</v>
@@ -9515,7 +9515,7 @@
         <v>5</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K96">
         <v>0.5833333333333334</v>
@@ -9565,7 +9565,7 @@
         <v>5</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K97">
         <v>0.5833333333333334</v>
@@ -9615,7 +9615,7 @@
         <v>26</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K98">
         <v>0.5714285714285714</v>
@@ -9665,7 +9665,7 @@
         <v>22</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K99">
         <v>0.5714285714285714</v>
@@ -9715,7 +9715,7 @@
         <v>11</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K100">
         <v>0.5714285714285714</v>
@@ -9765,7 +9765,7 @@
         <v>17</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K101">
         <v>0.5714285714285714</v>
@@ -9815,7 +9815,7 @@
         <v>17</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K102">
         <v>0.5686274509803921</v>
@@ -9865,7 +9865,7 @@
         <v>6</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K103">
         <v>0.5652173913043478</v>
@@ -9915,7 +9915,7 @@
         <v>18</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K104">
         <v>0.5625</v>
@@ -9965,7 +9965,7 @@
         <v>6</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K105">
         <v>0.5555555555555556</v>
@@ -10065,7 +10065,7 @@
         <v>6</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K107">
         <v>0.5384615384615384</v>
@@ -10115,7 +10115,7 @@
         <v>12</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K108">
         <v>0.5333333333333333</v>
@@ -10165,28 +10165,28 @@
         <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="K109">
-        <v>0.5290519877675841</v>
+        <v>0.52</v>
       </c>
       <c r="L109">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="M109">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="N109">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>154</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -10218,13 +10218,13 @@
         <v>415</v>
       </c>
       <c r="K110">
-        <v>0.52</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L110">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M110">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -10236,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -10265,7 +10265,7 @@
         <v>6</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>416</v>
+        <v>200</v>
       </c>
       <c r="K111">
         <v>0.5185185185185185</v>
@@ -10274,16 +10274,16 @@
         <v>14</v>
       </c>
       <c r="M111">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111">
         <v>13</v>
@@ -10315,28 +10315,28 @@
         <v>6</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>202</v>
+        <v>416</v>
       </c>
       <c r="K112">
-        <v>0.5185185185185185</v>
+        <v>0.5088235294117647</v>
       </c>
       <c r="L112">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="M112">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="N112">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O112">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>13</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -10515,7 +10515,7 @@
         <v>6</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K116">
         <v>0.5</v>
@@ -11415,7 +11415,7 @@
         <v>8</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K134">
         <v>0.4772727272727273</v>
@@ -11715,7 +11715,7 @@
         <v>8</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K140">
         <v>0.4583333333333333</v>
@@ -11765,7 +11765,7 @@
         <v>8</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K141">
         <v>0.4558823529411765</v>
@@ -12094,25 +12094,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.1022727272727273</v>
+        <v>0.1</v>
       </c>
       <c r="C148">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D148">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="E148">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>444</v>
@@ -12147,10 +12147,10 @@
         <v>0.1</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -12162,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>445</v>
@@ -12200,22 +12200,22 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>9</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K150">
         <v>0.4444444444444444</v>
@@ -12250,13 +12250,13 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E151">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F151">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -12300,13 +12300,13 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E152">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F152">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -12350,13 +12350,13 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F153">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
@@ -12400,13 +12400,13 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E154">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F154">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
@@ -12415,7 +12415,7 @@
         <v>9</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K154">
         <v>0.4285714285714285</v>
@@ -12450,13 +12450,13 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E155">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F155">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
@@ -12500,16 +12500,16 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>9</v>
@@ -12594,13 +12594,13 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.1</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>451</v>
@@ -12694,25 +12694,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.09677419354838709</v>
+        <v>0.0912621359223301</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>28</v>
+        <v>468</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>453</v>
@@ -12744,25 +12744,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0912621359223301</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C161">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E161">
-        <v>0.02</v>
+        <v>0.67</v>
       </c>
       <c r="F161">
-        <v>0.98</v>
+        <v>0.33</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>468</v>
+        <v>10</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>77</v>
@@ -12800,13 +12800,13 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E162">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F162">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -12850,16 +12850,16 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>10</v>
@@ -12900,16 +12900,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>10</v>
@@ -12950,13 +12950,13 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F165">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
@@ -13050,16 +13050,16 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>10</v>
@@ -13097,22 +13097,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>459</v>
@@ -13147,22 +13147,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E169">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="F169">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>460</v>
@@ -13200,16 +13200,16 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>10</v>
@@ -13244,7 +13244,7 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -13262,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>134</v>
@@ -13365,7 +13365,7 @@
         <v>11</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K173">
         <v>0.4120734908136483</v>
@@ -13415,7 +13415,7 @@
         <v>11</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K174">
         <v>0.4117647058823529</v>
@@ -13450,16 +13450,16 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
         <v>11</v>
@@ -13500,16 +13500,16 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
         <v>11</v>
@@ -13550,16 +13550,16 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
         <v>11</v>
@@ -13600,13 +13600,13 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F178">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
@@ -13650,22 +13650,22 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <v>11</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K179">
         <v>0.4</v>
@@ -13694,13 +13694,13 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.08333333333333333</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -13712,10 +13712,10 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K180">
         <v>0.4</v>
@@ -13744,13 +13744,13 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.07843137254901961</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -13762,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>466</v>
@@ -13794,25 +13794,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.07784431137724551</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C182">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="E182">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>467</v>
@@ -13847,22 +13847,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>468</v>
@@ -13897,10 +13897,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -13912,7 +13912,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>469</v>
@@ -13950,16 +13950,16 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <v>12</v>
@@ -14050,16 +14050,16 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
         <v>12</v>
@@ -14094,13 +14094,13 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -14112,7 +14112,7 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>472</v>
@@ -14144,25 +14144,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>95</v>
@@ -14194,25 +14194,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D190">
         <v>3</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>473</v>
@@ -14247,10 +14247,10 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -14262,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>474</v>
@@ -14300,13 +14300,13 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F192">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
@@ -14347,22 +14347,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>476</v>
@@ -14400,16 +14400,16 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>13</v>
@@ -14447,22 +14447,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E195">
-        <v>0.33</v>
+        <v>0.93</v>
       </c>
       <c r="F195">
-        <v>0.6699999999999999</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>478</v>
@@ -14544,28 +14544,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E197">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F197">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K197">
         <v>0.3666666666666666</v>
@@ -14594,7 +14594,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -14612,10 +14612,10 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K198">
         <v>0.3666666666666666</v>
@@ -14644,25 +14644,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C199">
         <v>2</v>
       </c>
       <c r="D199">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E199">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="F199">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>480</v>
@@ -14700,16 +14700,16 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
         <v>14</v>
@@ -14747,22 +14747,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E201">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F201">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>482</v>
@@ -14800,16 +14800,16 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>14</v>
@@ -14850,16 +14850,16 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
         <v>14</v>
@@ -14894,25 +14894,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>485</v>
@@ -14944,25 +14944,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>486</v>
@@ -14994,28 +14994,28 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K206">
         <v>0.3571428571428572</v>
@@ -15050,13 +15050,13 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E207">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F207">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
@@ -15065,7 +15065,7 @@
         <v>15</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K207">
         <v>0.3571428571428572</v>
@@ -15100,16 +15100,16 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>15</v>
@@ -15144,25 +15144,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>488</v>
@@ -15194,25 +15194,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E210">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F210">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>489</v>
@@ -15250,16 +15250,16 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
         <v>16</v>
@@ -15300,16 +15300,16 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
         <v>16</v>
@@ -15350,16 +15350,16 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
         <v>16</v>
@@ -15400,16 +15400,16 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
         <v>16</v>
@@ -15444,25 +15444,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>494</v>
@@ -15494,25 +15494,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F216">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>495</v>
@@ -15550,16 +15550,16 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
         <v>17</v>
@@ -15594,25 +15594,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>497</v>
@@ -15644,25 +15644,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>498</v>
@@ -15700,16 +15700,16 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
         <v>18</v>
@@ -15750,13 +15750,13 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E221">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F221">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
@@ -15800,13 +15800,13 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E222">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F222">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
@@ -15850,16 +15850,16 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
         <v>18</v>
@@ -15900,16 +15900,16 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E224">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>18</v>
@@ -15994,13 +15994,13 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.05263157894736842</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>505</v>
@@ -16044,25 +16044,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>506</v>
@@ -16094,25 +16094,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.05194805194805195</v>
+        <v>0.05</v>
       </c>
       <c r="C228">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>507</v>
@@ -16144,25 +16144,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E229">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F229">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>508</v>
@@ -16200,13 +16200,13 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E230">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F230">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
@@ -16250,13 +16250,13 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E231">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F231">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
@@ -16300,16 +16300,16 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
         <v>19</v>
@@ -16344,25 +16344,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E233">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F233">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>74</v>
@@ -16394,25 +16394,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>512</v>
@@ -16444,25 +16444,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.04761904761904762</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="E235">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F235">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>76</v>
@@ -16494,25 +16494,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E236">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F236">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>513</v>
@@ -16544,25 +16544,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.04651162790697674</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="E237">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F237">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>514</v>
@@ -16594,25 +16594,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E238">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F238">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>515</v>
@@ -16644,25 +16644,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E239">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F239">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>516</v>
@@ -16700,13 +16700,13 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="F240">
-        <v>0.2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
@@ -16715,7 +16715,7 @@
         <v>22</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K240">
         <v>0.3214285714285715</v>
@@ -16750,13 +16750,13 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E241">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F241">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
@@ -16794,28 +16794,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.04347826086956522</v>
+        <v>0.04294478527607362</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D242">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="E242">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F242">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K242">
         <v>0.3170731707317073</v>
@@ -16844,25 +16844,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E243">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F243">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>518</v>
@@ -16894,25 +16894,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.04294478527607362</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C244">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="E244">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F244">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>519</v>
@@ -16950,16 +16950,16 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
         <v>23</v>
@@ -16994,25 +16994,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E246">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F246">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>521</v>
@@ -17044,25 +17044,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>522</v>
@@ -17100,13 +17100,13 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E248">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F248">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
@@ -17144,28 +17144,28 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E249">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F249">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K249">
         <v>0.3076923076923077</v>
@@ -17194,25 +17194,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E250">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F250">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>80</v>
@@ -17244,25 +17244,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.03846153846153846</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D251">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E251">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F251">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>524</v>
@@ -17294,25 +17294,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.03703703703703703</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E252">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F252">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>525</v>
@@ -17344,28 +17344,28 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.03614457831325301</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E253">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="F253">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K253">
         <v>0.3055555555555556</v>
@@ -17400,13 +17400,13 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E254">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F254">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
@@ -17450,13 +17450,13 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E255">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F255">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
@@ -17500,13 +17500,13 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E256">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F256">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
@@ -17544,25 +17544,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.03448275862068965</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E257">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F257">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>529</v>
@@ -17594,25 +17594,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.03448275862068965</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E258">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F258">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>530</v>
@@ -17644,25 +17644,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E259">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F259">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>531</v>
@@ -17694,25 +17694,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F260">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>532</v>
@@ -17744,25 +17744,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>533</v>
@@ -17794,28 +17794,28 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K262">
         <v>0.293103448275862</v>
@@ -17844,25 +17844,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D263">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E263">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F263">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>534</v>
@@ -17894,25 +17894,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E264">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F264">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H264">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>98</v>
@@ -17944,25 +17944,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C265">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E265">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>101</v>
@@ -17994,25 +17994,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>535</v>
@@ -18044,25 +18044,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>536</v>
@@ -18100,13 +18100,13 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E268">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F268">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
@@ -18150,13 +18150,13 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E269">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F269">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
@@ -18200,13 +18200,13 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E270">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F270">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
@@ -18250,13 +18250,13 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E271">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F271">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
@@ -18294,25 +18294,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E272">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F272">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>540</v>
@@ -18344,7 +18344,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.02439024390243903</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -18362,7 +18362,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>541</v>
@@ -18394,25 +18394,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E274">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F274">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>542</v>
@@ -18444,25 +18444,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E275">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F275">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>543</v>
@@ -18494,25 +18494,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E276">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F276">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>544</v>
@@ -18544,25 +18544,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E277">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F277">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>545</v>
@@ -18594,25 +18594,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E278">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F278">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>546</v>
@@ -18644,25 +18644,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D279">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E279">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
       <c r="F279">
-        <v>0.08999999999999997</v>
+        <v>0.22</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>547</v>
@@ -18694,25 +18694,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E280">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F280">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>548</v>
@@ -18744,25 +18744,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E281">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="F281">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>549</v>
@@ -18794,25 +18794,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.02083333333333333</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D282">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E282">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F282">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H282">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>96</v>
@@ -18844,25 +18844,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.02040816326530612</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E283">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F283">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>550</v>
@@ -18894,25 +18894,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.02013422818791946</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C284">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F284">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H284">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>551</v>
@@ -18944,25 +18944,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E285">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F285">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>552</v>
@@ -18994,25 +18994,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.0196078431372549</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E286">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F286">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>553</v>
@@ -19044,25 +19044,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.01923076923076923</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E287">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F287">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>554</v>
@@ -19094,25 +19094,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E288">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F288">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H288">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>555</v>
@@ -19144,25 +19144,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E289">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F289">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>556</v>
@@ -19194,25 +19194,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F290">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H290">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>557</v>
@@ -19244,25 +19244,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.01785714285714286</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D291">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E291">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F291">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>558</v>
@@ -19294,28 +19294,28 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E292">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F292">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K292">
         <v>0.282051282051282</v>
@@ -19344,13 +19344,13 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.0170940170940171</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E293">
         <v>0.83</v>
@@ -19362,7 +19362,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>559</v>
@@ -19394,25 +19394,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.01694915254237288</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E294">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F294">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>138</v>
@@ -19444,25 +19444,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.01612903225806452</v>
+        <v>0.015625</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E295">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F295">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>560</v>
@@ -19494,25 +19494,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.01587301587301587</v>
+        <v>0.015625</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E296">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F296">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>561</v>
@@ -19544,25 +19544,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.015625</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E297">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F297">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>562</v>
@@ -19594,25 +19594,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.015625</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E298">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F298">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>563</v>
@@ -19644,25 +19644,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.01515151515151515</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
       <c r="D299">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E299">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F299">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>564</v>
@@ -19694,25 +19694,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.01449275362318841</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D300">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E300">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F300">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>68</v>
+        <v>286</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>565</v>
@@ -19744,25 +19744,25 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.01388888888888889</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D301">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E301">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F301">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
       </c>
       <c r="H301">
-        <v>71</v>
+        <v>308</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>566</v>
@@ -19794,25 +19794,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.01379310344827586</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C302">
         <v>4</v>
       </c>
       <c r="D302">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E302">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F302">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>567</v>
@@ -19844,28 +19844,28 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.01282051282051282</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C303">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D303">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E303">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F303">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H303">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K303">
         <v>0.2666666666666667</v>
@@ -19894,28 +19894,28 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.01234567901234568</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
         <v>4</v>
       </c>
-      <c r="D304">
-        <v>98</v>
-      </c>
       <c r="E304">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F304">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K304">
         <v>0.2666666666666667</v>
@@ -19944,13 +19944,13 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.01219512195121951</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -19962,7 +19962,7 @@
         <v>0</v>
       </c>
       <c r="H305">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>568</v>
@@ -19994,25 +19994,25 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>0.01204819277108434</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E306">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F306">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G306" t="b">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>569</v>
@@ -20044,25 +20044,25 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>0.0119047619047619</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C307">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D307">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E307">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F307">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H307">
-        <v>249</v>
+        <v>364</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>570</v>
@@ -20094,7 +20094,7 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>0.01162790697674419</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -20112,10 +20112,10 @@
         <v>1</v>
       </c>
       <c r="H308">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K308">
         <v>0.2604166666666667</v>
@@ -20144,25 +20144,25 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>0.0108695652173913</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C309">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D309">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E309">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F309">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
       </c>
       <c r="H309">
-        <v>364</v>
+        <v>92</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>571</v>
@@ -20200,13 +20200,13 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E310">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F310">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
@@ -20244,25 +20244,25 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0.01075268817204301</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E311">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F311">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>573</v>
@@ -20294,28 +20294,28 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0.01075268817204301</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
       <c r="D312">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E312">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F312">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K312">
         <v>0.25</v>
@@ -20344,25 +20344,25 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>0.0101010101010101</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E313">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F313">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>574</v>
@@ -20394,25 +20394,25 @@
         <v>319</v>
       </c>
       <c r="B314">
-        <v>0.009900990099009901</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C314">
         <v>1</v>
       </c>
       <c r="D314">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E314">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F314">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G314" t="b">
         <v>1</v>
       </c>
       <c r="H314">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>575</v>
@@ -20444,25 +20444,25 @@
         <v>320</v>
       </c>
       <c r="B315">
-        <v>0.009615384615384616</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E315">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F315">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G315" t="b">
         <v>1</v>
       </c>
       <c r="H315">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>576</v>
@@ -20494,25 +20494,25 @@
         <v>321</v>
       </c>
       <c r="B316">
-        <v>0.009615384615384616</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D316">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="E316">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F316">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G316" t="b">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>577</v>
@@ -20544,25 +20544,25 @@
         <v>322</v>
       </c>
       <c r="B317">
-        <v>0.008849557522123894</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
       <c r="D317">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E317">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F317">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G317" t="b">
         <v>1</v>
       </c>
       <c r="H317">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>578</v>
@@ -20594,25 +20594,25 @@
         <v>323</v>
       </c>
       <c r="B318">
-        <v>0.008849557522123894</v>
+        <v>0.008347245409015025</v>
       </c>
       <c r="C318">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D318">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="E318">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F318">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G318" t="b">
         <v>1</v>
       </c>
       <c r="H318">
-        <v>224</v>
+        <v>594</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>579</v>
@@ -20644,25 +20644,25 @@
         <v>324</v>
       </c>
       <c r="B319">
-        <v>0.008547008547008548</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
       <c r="D319">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E319">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F319">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G319" t="b">
         <v>1</v>
       </c>
       <c r="H319">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>580</v>
@@ -20694,25 +20694,25 @@
         <v>325</v>
       </c>
       <c r="B320">
-        <v>0.008347245409015025</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C320">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D320">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="E320">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F320">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G320" t="b">
         <v>1</v>
       </c>
       <c r="H320">
-        <v>594</v>
+        <v>131</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>581</v>
@@ -20744,25 +20744,25 @@
         <v>326</v>
       </c>
       <c r="B321">
-        <v>0.007936507936507936</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C321">
         <v>1</v>
       </c>
       <c r="D321">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E321">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F321">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G321" t="b">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>582</v>
@@ -20794,25 +20794,25 @@
         <v>327</v>
       </c>
       <c r="B322">
-        <v>0.007575757575757576</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="C322">
         <v>1</v>
       </c>
       <c r="D322">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E322">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F322">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G322" t="b">
         <v>1</v>
       </c>
       <c r="H322">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>583</v>
@@ -20844,25 +20844,25 @@
         <v>328</v>
       </c>
       <c r="B323">
-        <v>0.007462686567164179</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="C323">
         <v>1</v>
       </c>
       <c r="D323">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E323">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F323">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G323" t="b">
         <v>1</v>
       </c>
       <c r="H323">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>584</v>
@@ -20894,25 +20894,25 @@
         <v>329</v>
       </c>
       <c r="B324">
-        <v>0.0072992700729927</v>
+        <v>0.006335797254487857</v>
       </c>
       <c r="C324">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D324">
         <v>27</v>
       </c>
       <c r="E324">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="F324">
-        <v>0.04000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="G324" t="b">
         <v>1</v>
       </c>
       <c r="H324">
-        <v>136</v>
+        <v>941</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>585</v>
@@ -20944,25 +20944,25 @@
         <v>330</v>
       </c>
       <c r="B325">
-        <v>0.006369426751592357</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="C325">
         <v>1</v>
       </c>
       <c r="D325">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E325">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="F325">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G325" t="b">
         <v>1</v>
       </c>
       <c r="H325">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J325" s="1" t="s">
         <v>586</v>
@@ -20994,25 +20994,25 @@
         <v>331</v>
       </c>
       <c r="B326">
-        <v>0.006335797254487857</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C326">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D326">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E326">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="F326">
-        <v>0.22</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G326" t="b">
         <v>1</v>
       </c>
       <c r="H326">
-        <v>941</v>
+        <v>163</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>587</v>
@@ -21044,25 +21044,25 @@
         <v>332</v>
       </c>
       <c r="B327">
-        <v>0.006172839506172839</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C327">
         <v>1</v>
       </c>
       <c r="D327">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E327">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F327">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H327">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J327" s="1" t="s">
         <v>588</v>
@@ -21094,25 +21094,25 @@
         <v>333</v>
       </c>
       <c r="B328">
-        <v>0.006097560975609756</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C328">
         <v>1</v>
       </c>
       <c r="D328">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E328">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F328">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G328" t="b">
         <v>1</v>
       </c>
       <c r="H328">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J328" s="1" t="s">
         <v>589</v>
@@ -21144,25 +21144,25 @@
         <v>334</v>
       </c>
       <c r="B329">
-        <v>0.006024096385542169</v>
+        <v>0.005639097744360902</v>
       </c>
       <c r="C329">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D329">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F329">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H329">
-        <v>165</v>
+        <v>529</v>
       </c>
       <c r="J329" s="1" t="s">
         <v>590</v>
@@ -21194,25 +21194,25 @@
         <v>335</v>
       </c>
       <c r="B330">
-        <v>0.006024096385542169</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="C330">
         <v>1</v>
       </c>
       <c r="D330">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E330">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F330">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G330" t="b">
         <v>1</v>
       </c>
       <c r="H330">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="J330" s="1" t="s">
         <v>591</v>
@@ -21244,25 +21244,25 @@
         <v>336</v>
       </c>
       <c r="B331">
-        <v>0.005639097744360902</v>
+        <v>0.005162622612287042</v>
       </c>
       <c r="C331">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D331">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="E331">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F331">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G331" t="b">
         <v>1</v>
       </c>
       <c r="H331">
-        <v>529</v>
+        <v>1927</v>
       </c>
       <c r="J331" s="1" t="s">
         <v>592</v>
@@ -21294,25 +21294,25 @@
         <v>337</v>
       </c>
       <c r="B332">
-        <v>0.005235602094240838</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="C332">
         <v>1</v>
       </c>
       <c r="D332">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E332">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F332">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G332" t="b">
         <v>1</v>
       </c>
       <c r="H332">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="J332" s="1" t="s">
         <v>593</v>
@@ -21344,25 +21344,25 @@
         <v>338</v>
       </c>
       <c r="B333">
-        <v>0.005162622612287042</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="C333">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D333">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="E333">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F333">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G333" t="b">
         <v>1</v>
       </c>
       <c r="H333">
-        <v>1927</v>
+        <v>214</v>
       </c>
       <c r="J333" s="1" t="s">
         <v>594</v>
@@ -21394,25 +21394,25 @@
         <v>339</v>
       </c>
       <c r="B334">
-        <v>0.004854368932038835</v>
+        <v>0.003631961259079903</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D334">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E334">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F334">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G334" t="b">
         <v>1</v>
       </c>
       <c r="H334">
-        <v>205</v>
+        <v>823</v>
       </c>
       <c r="J334" s="1" t="s">
         <v>595</v>
@@ -21444,25 +21444,25 @@
         <v>340</v>
       </c>
       <c r="B335">
-        <v>0.004651162790697674</v>
+        <v>0.003571428571428571</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D335">
-        <v>13</v>
+        <v>317</v>
       </c>
       <c r="E335">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F335">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G335" t="b">
         <v>1</v>
       </c>
       <c r="H335">
-        <v>214</v>
+        <v>2790</v>
       </c>
       <c r="J335" s="1" t="s">
         <v>596</v>
@@ -21494,25 +21494,25 @@
         <v>341</v>
       </c>
       <c r="B336">
-        <v>0.003631961259079903</v>
+        <v>0.002724795640326975</v>
       </c>
       <c r="C336">
         <v>3</v>
       </c>
       <c r="D336">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E336">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F336">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G336" t="b">
         <v>1</v>
       </c>
       <c r="H336">
-        <v>823</v>
+        <v>1098</v>
       </c>
       <c r="J336" s="1" t="s">
         <v>597</v>
@@ -21544,13 +21544,13 @@
         <v>342</v>
       </c>
       <c r="B337">
-        <v>0.003571428571428571</v>
+        <v>0.002472187886279357</v>
       </c>
       <c r="C337">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D337">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="E337">
         <v>0.97</v>
@@ -21562,7 +21562,7 @@
         <v>1</v>
       </c>
       <c r="H337">
-        <v>2790</v>
+        <v>807</v>
       </c>
       <c r="J337" s="1" t="s">
         <v>598</v>
@@ -21594,25 +21594,25 @@
         <v>343</v>
       </c>
       <c r="B338">
-        <v>0.002724795640326975</v>
+        <v>0.001876172607879925</v>
       </c>
       <c r="C338">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D338">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E338">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F338">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G338" t="b">
         <v>1</v>
       </c>
       <c r="H338">
-        <v>1098</v>
+        <v>532</v>
       </c>
       <c r="J338" s="1" t="s">
         <v>599</v>
@@ -21644,13 +21644,13 @@
         <v>344</v>
       </c>
       <c r="B339">
-        <v>0.002472187886279357</v>
+        <v>0.00163826998689384</v>
       </c>
       <c r="C339">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D339">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="E339">
         <v>0.97</v>
@@ -21662,10 +21662,10 @@
         <v>1</v>
       </c>
       <c r="H339">
-        <v>807</v>
+        <v>3047</v>
       </c>
       <c r="J339" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K339">
         <v>0.25</v>
@@ -21694,25 +21694,25 @@
         <v>345</v>
       </c>
       <c r="B340">
-        <v>0.001876172607879925</v>
+        <v>0.00125</v>
       </c>
       <c r="C340">
         <v>1</v>
       </c>
       <c r="D340">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E340">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F340">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G340" t="b">
         <v>1</v>
       </c>
       <c r="H340">
-        <v>532</v>
+        <v>799</v>
       </c>
       <c r="J340" s="1" t="s">
         <v>600</v>
@@ -21740,30 +21740,6 @@
       </c>
     </row>
     <row r="341" spans="1:17">
-      <c r="A341" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B341">
-        <v>0.00163826998689384</v>
-      </c>
-      <c r="C341">
-        <v>5</v>
-      </c>
-      <c r="D341">
-        <v>154</v>
-      </c>
-      <c r="E341">
-        <v>0.97</v>
-      </c>
-      <c r="F341">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341">
-        <v>3047</v>
-      </c>
       <c r="J341" s="1" t="s">
         <v>38</v>
       </c>
@@ -21790,30 +21766,6 @@
       </c>
     </row>
     <row r="342" spans="1:17">
-      <c r="A342" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B342">
-        <v>0.00125</v>
-      </c>
-      <c r="C342">
-        <v>1</v>
-      </c>
-      <c r="D342">
-        <v>95</v>
-      </c>
-      <c r="E342">
-        <v>0.99</v>
-      </c>
-      <c r="F342">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342">
-        <v>799</v>
-      </c>
       <c r="J342" s="1" t="s">
         <v>601</v>
       </c>
@@ -21841,7 +21793,7 @@
     </row>
     <row r="343" spans="1:17">
       <c r="J343" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K343">
         <v>0.2476635514018692</v>
@@ -21971,7 +21923,7 @@
     </row>
     <row r="348" spans="1:17">
       <c r="J348" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K348">
         <v>0.2380952380952381</v>
@@ -22153,7 +22105,7 @@
     </row>
     <row r="355" spans="10:17">
       <c r="J355" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K355">
         <v>0.2333333333333333</v>
@@ -22179,7 +22131,7 @@
     </row>
     <row r="356" spans="10:17">
       <c r="J356" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K356">
         <v>0.2307692307692308</v>
@@ -22205,7 +22157,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K357">
         <v>0.2307692307692308</v>
@@ -22257,7 +22209,7 @@
     </row>
     <row r="359" spans="10:17">
       <c r="J359" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K359">
         <v>0.2307692307692308</v>
@@ -22517,7 +22469,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K369">
         <v>0.2270531400966184</v>
@@ -22777,7 +22729,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K379">
         <v>0.2222222222222222</v>
@@ -23141,7 +23093,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K393">
         <v>0.2173913043478261</v>
@@ -23167,7 +23119,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K394">
         <v>0.2162162162162162</v>
@@ -23349,7 +23301,7 @@
     </row>
     <row r="401" spans="10:17">
       <c r="J401" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K401">
         <v>0.2105263157894737</v>
@@ -23401,7 +23353,7 @@
     </row>
     <row r="403" spans="10:17">
       <c r="J403" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K403">
         <v>0.2101910828025478</v>
@@ -23765,7 +23717,7 @@
     </row>
     <row r="417" spans="10:17">
       <c r="J417" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K417">
         <v>0.2</v>
@@ -23999,7 +23951,7 @@
     </row>
     <row r="426" spans="10:17">
       <c r="J426" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K426">
         <v>0.2</v>
@@ -24467,7 +24419,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K444">
         <v>0.1830985915492958</v>
@@ -24493,7 +24445,7 @@
     </row>
     <row r="445" spans="10:17">
       <c r="J445" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K445">
         <v>0.1818181818181818</v>
@@ -24727,7 +24679,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K454">
         <v>0.1818181818181818</v>
@@ -25039,7 +24991,7 @@
     </row>
     <row r="466" spans="10:17">
       <c r="J466" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K466">
         <v>0.1785714285714286</v>
@@ -25091,7 +25043,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K468">
         <v>0.1774193548387097</v>
@@ -25169,7 +25121,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K471">
         <v>0.1764705882352941</v>
@@ -25325,7 +25277,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K477">
         <v>0.1739130434782609</v>
@@ -25481,7 +25433,7 @@
     </row>
     <row r="483" spans="10:17">
       <c r="J483" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K483">
         <v>0.1711711711711712</v>
@@ -25689,7 +25641,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K491">
         <v>0.1666666666666667</v>
@@ -25741,7 +25693,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K493">
         <v>0.1666666666666667</v>
@@ -26001,7 +25953,7 @@
     </row>
     <row r="503" spans="10:17">
       <c r="J503" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K503">
         <v>0.1666666666666667</v>
@@ -26469,7 +26421,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K521">
         <v>0.1666666666666667</v>
@@ -27613,7 +27565,7 @@
     </row>
     <row r="565" spans="10:17">
       <c r="J565" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K565">
         <v>0.1604938271604938</v>
@@ -27639,7 +27591,7 @@
     </row>
     <row r="566" spans="10:17">
       <c r="J566" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K566">
         <v>0.1582278481012658</v>
@@ -27821,7 +27773,7 @@
     </row>
     <row r="573" spans="10:17">
       <c r="J573" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K573">
         <v>0.1538461538461539</v>
@@ -27951,7 +27903,7 @@
     </row>
     <row r="578" spans="10:17">
       <c r="J578" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K578">
         <v>0.1538461538461539</v>
@@ -27977,7 +27929,7 @@
     </row>
     <row r="579" spans="10:17">
       <c r="J579" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K579">
         <v>0.1538461538461539</v>
@@ -28081,7 +28033,7 @@
     </row>
     <row r="583" spans="10:17">
       <c r="J583" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K583">
         <v>0.1515151515151515</v>
@@ -28107,7 +28059,7 @@
     </row>
     <row r="584" spans="10:17">
       <c r="J584" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K584">
         <v>0.1515151515151515</v>
@@ -28133,7 +28085,7 @@
     </row>
     <row r="585" spans="10:17">
       <c r="J585" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K585">
         <v>0.1515151515151515</v>
@@ -28341,7 +28293,7 @@
     </row>
     <row r="593" spans="10:17">
       <c r="J593" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K593">
         <v>0.148936170212766</v>
@@ -28367,7 +28319,7 @@
     </row>
     <row r="594" spans="10:17">
       <c r="J594" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K594">
         <v>0.148936170212766</v>
@@ -28575,7 +28527,7 @@
     </row>
     <row r="602" spans="10:17">
       <c r="J602" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K602">
         <v>0.1461538461538462</v>
@@ -28861,7 +28813,7 @@
     </row>
     <row r="613" spans="10:17">
       <c r="J613" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K613">
         <v>0.1428571428571428</v>
@@ -29407,7 +29359,7 @@
     </row>
     <row r="634" spans="10:17">
       <c r="J634" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K634">
         <v>0.1428571428571428</v>
@@ -30603,7 +30555,7 @@
     </row>
     <row r="680" spans="10:17">
       <c r="J680" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K680">
         <v>0.1384615384615385</v>
@@ -30733,7 +30685,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K685">
         <v>0.1333333333333333</v>
@@ -30915,7 +30867,7 @@
     </row>
     <row r="692" spans="10:17">
       <c r="J692" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K692">
         <v>0.1313559322033898</v>
@@ -30941,7 +30893,7 @@
     </row>
     <row r="693" spans="10:17">
       <c r="J693" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K693">
         <v>0.1304347826086956</v>
@@ -30993,7 +30945,7 @@
     </row>
     <row r="695" spans="10:17">
       <c r="J695" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K695">
         <v>0.1304347826086956</v>
@@ -31123,7 +31075,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K700">
         <v>0.1290322580645161</v>
@@ -31227,7 +31179,7 @@
     </row>
     <row r="704" spans="10:17">
       <c r="J704" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K704">
         <v>0.1278195488721804</v>
@@ -31253,7 +31205,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K705">
         <v>0.1271186440677966</v>
@@ -32631,7 +32583,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K758">
         <v>0.1228070175438596</v>
@@ -32657,7 +32609,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K759">
         <v>0.1224489795918367</v>
@@ -33203,7 +33155,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K780">
         <v>0.116504854368932</v>
@@ -33307,7 +33259,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K784">
         <v>0.1145510835913313</v>
@@ -33333,7 +33285,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K785">
         <v>0.1141304347826087</v>
@@ -33411,7 +33363,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K788">
         <v>0.1129032258064516</v>
@@ -33463,7 +33415,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K790">
         <v>0.1121495327102804</v>
@@ -34633,7 +34585,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K835">
         <v>0.1072463768115942</v>
@@ -34711,7 +34663,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K838">
         <v>0.1052631578947368</v>
@@ -34893,7 +34845,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K845">
         <v>0.1052631578947368</v>
@@ -34919,7 +34871,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K846">
         <v>0.1052631578947368</v>
@@ -35153,7 +35105,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K855">
         <v>0.1027397260273973</v>
@@ -35751,7 +35703,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K878">
         <v>0.1</v>
@@ -35803,7 +35755,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K880">
         <v>0.1</v>
@@ -36089,7 +36041,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K891">
         <v>0.09912818856958347</v>
@@ -36115,7 +36067,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K892">
         <v>0.0990990990990991</v>
@@ -36167,7 +36119,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K894">
         <v>0.09677419354838709</v>
@@ -36297,7 +36249,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K899">
         <v>0.09657759024847633</v>
@@ -36557,7 +36509,7 @@
     </row>
     <row r="909" spans="10:17">
       <c r="J909" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K909">
         <v>0.09259259259259259</v>
@@ -36635,7 +36587,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K912">
         <v>0.09090909090909091</v>
@@ -36661,7 +36613,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K913">
         <v>0.09090909090909091</v>
@@ -36791,7 +36743,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K918">
         <v>0.09090909090909091</v>
@@ -37597,7 +37549,7 @@
     </row>
     <row r="949" spans="10:17">
       <c r="J949" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K949">
         <v>0.08695652173913043</v>
@@ -37779,7 +37731,7 @@
     </row>
     <row r="956" spans="10:17">
       <c r="J956" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K956">
         <v>0.08351893095768374</v>
@@ -37961,7 +37913,7 @@
     </row>
     <row r="963" spans="10:17">
       <c r="J963" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K963">
         <v>0.08333333333333333</v>
@@ -38533,7 +38485,7 @@
     </row>
     <row r="985" spans="10:17">
       <c r="J985" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K985">
         <v>0.08333333333333333</v>
@@ -38689,7 +38641,7 @@
     </row>
     <row r="991" spans="10:17">
       <c r="J991" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K991">
         <v>0.08064516129032258</v>
@@ -38793,7 +38745,7 @@
     </row>
     <row r="995" spans="10:17">
       <c r="J995" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K995">
         <v>0.08</v>
@@ -38819,7 +38771,7 @@
     </row>
     <row r="996" spans="10:17">
       <c r="J996" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K996">
         <v>0.07906976744186046</v>
@@ -39391,7 +39343,7 @@
     </row>
     <row r="1018" spans="10:17">
       <c r="J1018" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K1018">
         <v>0.07692307692307693</v>
@@ -39521,7 +39473,7 @@
     </row>
     <row r="1023" spans="10:17">
       <c r="J1023" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K1023">
         <v>0.07575757575757576</v>
@@ -40171,7 +40123,7 @@
     </row>
     <row r="1048" spans="10:17">
       <c r="J1048" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K1048">
         <v>0.07142857142857142</v>
@@ -40353,7 +40305,7 @@
     </row>
     <row r="1055" spans="10:17">
       <c r="J1055" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K1055">
         <v>0.07142857142857142</v>
@@ -40535,7 +40487,7 @@
     </row>
     <row r="1062" spans="10:17">
       <c r="J1062" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K1062">
         <v>0.0707070707070707</v>
@@ -40613,7 +40565,7 @@
     </row>
     <row r="1065" spans="10:17">
       <c r="J1065" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K1065">
         <v>0.06896551724137931</v>
@@ -40665,7 +40617,7 @@
     </row>
     <row r="1067" spans="10:17">
       <c r="J1067" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K1067">
         <v>0.0684931506849315</v>
@@ -40717,7 +40669,7 @@
     </row>
     <row r="1069" spans="10:17">
       <c r="J1069" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K1069">
         <v>0.06705202312138728</v>
@@ -41107,7 +41059,7 @@
     </row>
     <row r="1084" spans="10:17">
       <c r="J1084" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K1084">
         <v>0.06593406593406594</v>
@@ -41211,7 +41163,7 @@
     </row>
     <row r="1088" spans="10:17">
       <c r="J1088" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K1088">
         <v>0.06382978723404255</v>
@@ -41601,7 +41553,7 @@
     </row>
     <row r="1103" spans="10:17">
       <c r="J1103" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K1103">
         <v>0.0625</v>
@@ -41809,7 +41761,7 @@
     </row>
     <row r="1111" spans="10:17">
       <c r="J1111" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K1111">
         <v>0.06205673758865248</v>
@@ -41861,7 +41813,7 @@
     </row>
     <row r="1113" spans="10:17">
       <c r="J1113" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K1113">
         <v>0.06122448979591837</v>
@@ -42329,7 +42281,7 @@
     </row>
     <row r="1131" spans="10:17">
       <c r="J1131" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K1131">
         <v>0.05882352941176471</v>
@@ -42823,7 +42775,7 @@
     </row>
     <row r="1150" spans="10:17">
       <c r="J1150" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K1150">
         <v>0.05454545454545454</v>
@@ -43005,7 +42957,7 @@
     </row>
     <row r="1157" spans="10:17">
       <c r="J1157" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K1157">
         <v>0.05309734513274336</v>
@@ -43369,7 +43321,7 @@
     </row>
     <row r="1171" spans="10:17">
       <c r="J1171" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K1171">
         <v>0.05181347150259067</v>
@@ -43395,7 +43347,7 @@
     </row>
     <row r="1172" spans="10:17">
       <c r="J1172" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K1172">
         <v>0.05128205128205128</v>
@@ -43993,7 +43945,7 @@
     </row>
     <row r="1195" spans="10:17">
       <c r="J1195" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K1195">
         <v>0.04761904761904762</v>
@@ -44045,7 +43997,7 @@
     </row>
     <row r="1197" spans="10:17">
       <c r="J1197" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K1197">
         <v>0.04662077596996245</v>
@@ -44227,7 +44179,7 @@
     </row>
     <row r="1204" spans="10:17">
       <c r="J1204" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K1204">
         <v>0.04545454545454546</v>
@@ -44643,7 +44595,7 @@
     </row>
     <row r="1220" spans="10:17">
       <c r="J1220" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K1220">
         <v>0.04</v>
@@ -44981,7 +44933,7 @@
     </row>
     <row r="1233" spans="10:17">
       <c r="J1233" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K1233">
         <v>0.03738317757009346</v>
@@ -45085,7 +45037,7 @@
     </row>
     <row r="1237" spans="10:17">
       <c r="J1237" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K1237">
         <v>0.03703703703703703</v>
@@ -45319,7 +45271,7 @@
     </row>
     <row r="1246" spans="10:17">
       <c r="J1246" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K1246">
         <v>0.03529411764705882</v>
@@ -45579,7 +45531,7 @@
     </row>
     <row r="1256" spans="10:17">
       <c r="J1256" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K1256">
         <v>0.0310077519379845</v>
@@ -45631,7 +45583,7 @@
     </row>
     <row r="1258" spans="10:17">
       <c r="J1258" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K1258">
         <v>0.03076923076923077</v>
@@ -45657,7 +45609,7 @@
     </row>
     <row r="1259" spans="10:17">
       <c r="J1259" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K1259">
         <v>0.03076923076923077</v>
@@ -45735,7 +45687,7 @@
     </row>
     <row r="1262" spans="10:17">
       <c r="J1262" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K1262">
         <v>0.02941176470588235</v>
@@ -45865,7 +45817,7 @@
     </row>
     <row r="1267" spans="10:17">
       <c r="J1267" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K1267">
         <v>0.02857142857142857</v>
@@ -46541,7 +46493,7 @@
     </row>
     <row r="1293" spans="10:17">
       <c r="J1293" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K1293">
         <v>0.02439024390243903</v>
@@ -46697,7 +46649,7 @@
     </row>
     <row r="1299" spans="10:17">
       <c r="J1299" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K1299">
         <v>0.02272727272727273</v>
@@ -46827,7 +46779,7 @@
     </row>
     <row r="1304" spans="10:17">
       <c r="J1304" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K1304">
         <v>0.02205882352941177</v>
@@ -46905,7 +46857,7 @@
     </row>
     <row r="1307" spans="10:17">
       <c r="J1307" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K1307">
         <v>0.02182952182952183</v>
@@ -46931,7 +46883,7 @@
     </row>
     <row r="1308" spans="10:17">
       <c r="J1308" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K1308">
         <v>0.02127659574468085</v>
@@ -47087,7 +47039,7 @@
     </row>
     <row r="1314" spans="10:17">
       <c r="J1314" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K1314">
         <v>0.01851851851851852</v>
@@ -47555,7 +47507,7 @@
     </row>
     <row r="1332" spans="10:17">
       <c r="J1332" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K1332">
         <v>0.002132196162046908</v>
